--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_16ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_16ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -1802,28 +1802,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>145.350501195327</v>
+        <v>194.0475627954674</v>
       </c>
       <c r="AB2" t="n">
-        <v>198.8749681469053</v>
+        <v>265.504436190918</v>
       </c>
       <c r="AC2" t="n">
-        <v>179.8946203097919</v>
+        <v>240.1650654387509</v>
       </c>
       <c r="AD2" t="n">
-        <v>145350.501195327</v>
+        <v>194047.5627954674</v>
       </c>
       <c r="AE2" t="n">
-        <v>198874.9681469053</v>
+        <v>265504.436190918</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.247740575986305e-06</v>
+        <v>4.15890855649076e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.7578125</v>
       </c>
       <c r="AH2" t="n">
-        <v>179894.6203097919</v>
+        <v>240165.0654387509</v>
       </c>
     </row>
     <row r="3">
@@ -1908,28 +1908,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>113.4730579026669</v>
+        <v>150.0598597437009</v>
       </c>
       <c r="AB3" t="n">
-        <v>155.2588439003656</v>
+        <v>205.3185202750233</v>
       </c>
       <c r="AC3" t="n">
-        <v>140.4411577457133</v>
+        <v>185.7232088663866</v>
       </c>
       <c r="AD3" t="n">
-        <v>113473.0579026669</v>
+        <v>150059.8597437009</v>
       </c>
       <c r="AE3" t="n">
-        <v>155258.8439003656</v>
+        <v>205318.5202750233</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.754064576217825e-06</v>
+        <v>5.095740519848229e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.520833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>140441.1577457133</v>
+        <v>185723.2088663866</v>
       </c>
     </row>
     <row r="4">
@@ -2014,28 +2014,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>108.3191039253756</v>
+        <v>132.7103946612827</v>
       </c>
       <c r="AB4" t="n">
-        <v>148.2069766922371</v>
+        <v>181.5802167448906</v>
       </c>
       <c r="AC4" t="n">
-        <v>134.0623108465685</v>
+        <v>164.250455708244</v>
       </c>
       <c r="AD4" t="n">
-        <v>108319.1039253756</v>
+        <v>132710.3946612827</v>
       </c>
       <c r="AE4" t="n">
-        <v>148206.9766922371</v>
+        <v>181580.2167448906</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.887414613711956e-06</v>
+        <v>5.342473002176334e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.260416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>134062.3108465685</v>
+        <v>164250.455708244</v>
       </c>
     </row>
   </sheetData>
@@ -2311,28 +2311,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>128.2620733368188</v>
+        <v>163.4679583889494</v>
       </c>
       <c r="AB2" t="n">
-        <v>175.4938272626757</v>
+        <v>223.6640723650077</v>
       </c>
       <c r="AC2" t="n">
-        <v>158.7449426959084</v>
+        <v>202.3178872130528</v>
       </c>
       <c r="AD2" t="n">
-        <v>128262.0733368188</v>
+        <v>163467.9583889494</v>
       </c>
       <c r="AE2" t="n">
-        <v>175493.8272626757</v>
+        <v>223664.0723650077</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.578745755858434e-06</v>
+        <v>4.915487394684124e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.09375</v>
       </c>
       <c r="AH2" t="n">
-        <v>158744.9426959084</v>
+        <v>202317.8872130528</v>
       </c>
     </row>
     <row r="3">
@@ -2417,28 +2417,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>102.0521179855106</v>
+        <v>125.5796317594958</v>
       </c>
       <c r="AB3" t="n">
-        <v>139.6322100494115</v>
+        <v>171.823592355614</v>
       </c>
       <c r="AC3" t="n">
-        <v>126.3059078973709</v>
+        <v>155.4249898571685</v>
       </c>
       <c r="AD3" t="n">
-        <v>102052.1179855106</v>
+        <v>125579.6317594958</v>
       </c>
       <c r="AE3" t="n">
-        <v>139632.2100494115</v>
+        <v>171823.592355614</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.046969836833853e-06</v>
+        <v>5.807994755168785e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.15625</v>
       </c>
       <c r="AH3" t="n">
-        <v>126305.9078973709</v>
+        <v>155424.9898571685</v>
       </c>
     </row>
     <row r="4">
@@ -2523,28 +2523,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>102.2186123564282</v>
+        <v>125.7461261304134</v>
       </c>
       <c r="AB4" t="n">
-        <v>139.8600149929141</v>
+        <v>172.0513972991166</v>
       </c>
       <c r="AC4" t="n">
-        <v>126.5119714567919</v>
+        <v>155.6310534165895</v>
       </c>
       <c r="AD4" t="n">
-        <v>102218.6123564282</v>
+        <v>125746.1261304134</v>
       </c>
       <c r="AE4" t="n">
-        <v>139860.0149929141</v>
+        <v>172051.3972991166</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.044192993488375e-06</v>
+        <v>5.80270166319541e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.162760416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>126511.9714567919</v>
+        <v>155631.0534165895</v>
       </c>
     </row>
   </sheetData>
@@ -2820,28 +2820,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>87.67972653114579</v>
+        <v>118.8994618041258</v>
       </c>
       <c r="AB2" t="n">
-        <v>119.9672699963985</v>
+        <v>162.6834891143824</v>
       </c>
       <c r="AC2" t="n">
-        <v>108.5177621230944</v>
+        <v>147.1572052410616</v>
       </c>
       <c r="AD2" t="n">
-        <v>87679.72653114579</v>
+        <v>118899.4618041258</v>
       </c>
       <c r="AE2" t="n">
-        <v>119967.2699963985</v>
+        <v>162683.4891143824</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.315828550101794e-06</v>
+        <v>7.061847049655728e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.292968750000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>108517.7621230944</v>
+        <v>147157.2052410616</v>
       </c>
     </row>
   </sheetData>
@@ -3117,28 +3117,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>93.04767818493735</v>
+        <v>114.9913597858888</v>
       </c>
       <c r="AB2" t="n">
-        <v>127.3119382664256</v>
+        <v>157.3362515197404</v>
       </c>
       <c r="AC2" t="n">
-        <v>115.1614655617392</v>
+        <v>142.3203004975555</v>
       </c>
       <c r="AD2" t="n">
-        <v>93047.67818493735</v>
+        <v>114991.3597858888</v>
       </c>
       <c r="AE2" t="n">
-        <v>127311.9382664256</v>
+        <v>157336.2515197404</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.227773444628477e-06</v>
+        <v>6.553496036074201e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.201822916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>115161.4655617392</v>
+        <v>142320.3004975555</v>
       </c>
     </row>
     <row r="3">
@@ -3223,28 +3223,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>92.9716051606556</v>
+        <v>114.915286761607</v>
       </c>
       <c r="AB3" t="n">
-        <v>127.2078517984984</v>
+        <v>157.2321650518132</v>
       </c>
       <c r="AC3" t="n">
-        <v>115.0673129602247</v>
+        <v>142.2261478960409</v>
       </c>
       <c r="AD3" t="n">
-        <v>92971.6051606556</v>
+        <v>114915.286761607</v>
       </c>
       <c r="AE3" t="n">
-        <v>127207.8517984984</v>
+        <v>157232.1650518132</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.242775314465836e-06</v>
+        <v>6.583955018465435e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.17578125</v>
       </c>
       <c r="AH3" t="n">
-        <v>115067.3129602247</v>
+        <v>142226.1478960409</v>
       </c>
     </row>
   </sheetData>
@@ -3520,28 +3520,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>83.94511589827124</v>
+        <v>114.0845807892513</v>
       </c>
       <c r="AB2" t="n">
-        <v>114.8574109691091</v>
+        <v>156.0955564922756</v>
       </c>
       <c r="AC2" t="n">
-        <v>103.8955808696357</v>
+        <v>141.1980156621852</v>
       </c>
       <c r="AD2" t="n">
-        <v>83945.11589827124</v>
+        <v>114084.5807892513</v>
       </c>
       <c r="AE2" t="n">
-        <v>114857.4109691091</v>
+        <v>156095.5564922756</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.313503550487219e-06</v>
+        <v>7.37852520003135e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.501302083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>103895.5808696357</v>
+        <v>141198.0156621851</v>
       </c>
     </row>
   </sheetData>
@@ -3817,28 +3817,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>132.0989129050265</v>
+        <v>167.645352541781</v>
       </c>
       <c r="AB2" t="n">
-        <v>180.7435604293102</v>
+        <v>229.3797673385322</v>
       </c>
       <c r="AC2" t="n">
-        <v>163.4936486971677</v>
+        <v>207.4880842803342</v>
       </c>
       <c r="AD2" t="n">
-        <v>132098.9129050265</v>
+        <v>167645.352541781</v>
       </c>
       <c r="AE2" t="n">
-        <v>180743.5604293102</v>
+        <v>229379.7673385322</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.497432242008852e-06</v>
+        <v>4.722054148037592e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.236979166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>163493.6486971678</v>
+        <v>207488.0842803342</v>
       </c>
     </row>
     <row r="3">
@@ -3923,28 +3923,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>104.1247454221791</v>
+        <v>127.8792955859135</v>
       </c>
       <c r="AB3" t="n">
-        <v>142.4680703461289</v>
+        <v>174.9700938569248</v>
       </c>
       <c r="AC3" t="n">
-        <v>128.8711176675254</v>
+        <v>158.2711936713378</v>
       </c>
       <c r="AD3" t="n">
-        <v>104124.7454221791</v>
+        <v>127879.2955859135</v>
       </c>
       <c r="AE3" t="n">
-        <v>142468.0703461289</v>
+        <v>174970.0938569248</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.990476853418223e-06</v>
+        <v>5.654284986300691e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.208333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>128871.1176675254</v>
+        <v>158271.1936713378</v>
       </c>
     </row>
     <row r="4">
@@ -4029,28 +4029,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>103.7128048563905</v>
+        <v>127.467355020125</v>
       </c>
       <c r="AB4" t="n">
-        <v>141.9044350904822</v>
+        <v>174.4064586012781</v>
       </c>
       <c r="AC4" t="n">
-        <v>128.3612749696104</v>
+        <v>157.7613509734228</v>
       </c>
       <c r="AD4" t="n">
-        <v>103712.8048563905</v>
+        <v>127467.355020125</v>
       </c>
       <c r="AE4" t="n">
-        <v>141904.4350904822</v>
+        <v>174406.4586012781</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.004643151707601e-06</v>
+        <v>5.681070108425121e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.182291666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>128361.2749696104</v>
+        <v>157761.3509734228</v>
       </c>
     </row>
   </sheetData>
@@ -4326,28 +4326,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>81.85726408224619</v>
+        <v>111.2560310366421</v>
       </c>
       <c r="AB2" t="n">
-        <v>112.0007200049037</v>
+        <v>152.2254099339496</v>
       </c>
       <c r="AC2" t="n">
-        <v>101.3115284816623</v>
+        <v>137.6972304595997</v>
       </c>
       <c r="AD2" t="n">
-        <v>81857.26408224618</v>
+        <v>111256.0310366421</v>
       </c>
       <c r="AE2" t="n">
-        <v>112000.7200049037</v>
+        <v>152225.4099339496</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.266461877770636e-06</v>
+        <v>7.488581885188693e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.709635416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>101311.5284816622</v>
+        <v>137697.2304595997</v>
       </c>
     </row>
   </sheetData>
@@ -4623,28 +4623,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>104.2230158480048</v>
+        <v>138.4088878479754</v>
       </c>
       <c r="AB2" t="n">
-        <v>142.6025282781289</v>
+        <v>189.3771465226962</v>
       </c>
       <c r="AC2" t="n">
-        <v>128.9927431232083</v>
+        <v>171.3032574511179</v>
       </c>
       <c r="AD2" t="n">
-        <v>104223.0158480048</v>
+        <v>138408.8878479754</v>
       </c>
       <c r="AE2" t="n">
-        <v>142602.5282781289</v>
+        <v>189377.1465226962</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.891435322510651e-06</v>
+        <v>5.667173272675029e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.598958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>128992.7431232083</v>
+        <v>171303.2574511179</v>
       </c>
     </row>
     <row r="3">
@@ -4729,28 +4729,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>97.59643145909018</v>
+        <v>120.3871023009549</v>
       </c>
       <c r="AB3" t="n">
-        <v>133.5357431729498</v>
+        <v>164.7189444722097</v>
       </c>
       <c r="AC3" t="n">
-        <v>120.7912792631518</v>
+        <v>148.9983995963181</v>
       </c>
       <c r="AD3" t="n">
-        <v>97596.43145909018</v>
+        <v>120387.1023009549</v>
       </c>
       <c r="AE3" t="n">
-        <v>133535.7431729498</v>
+        <v>164718.9444722097</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.150045667945704e-06</v>
+        <v>6.174045975749782e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.143229166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>120791.2792631518</v>
+        <v>148998.3995963181</v>
       </c>
     </row>
   </sheetData>
@@ -5026,28 +5026,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>112.0127367427555</v>
+        <v>146.9503685407687</v>
       </c>
       <c r="AB2" t="n">
-        <v>153.2607680645531</v>
+        <v>201.0639772301035</v>
       </c>
       <c r="AC2" t="n">
-        <v>138.633775463353</v>
+        <v>181.8747134383839</v>
       </c>
       <c r="AD2" t="n">
-        <v>112012.7367427555</v>
+        <v>146950.3685407687</v>
       </c>
       <c r="AE2" t="n">
-        <v>153260.7680645531</v>
+        <v>201063.9772301035</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.68358242460981e-06</v>
+        <v>5.159732196553032e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.911458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>138633.775463353</v>
+        <v>181874.7134383839</v>
       </c>
     </row>
     <row r="3">
@@ -5132,28 +5132,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>100.3951608594062</v>
+        <v>123.687004899966</v>
       </c>
       <c r="AB3" t="n">
-        <v>137.3650882096871</v>
+        <v>169.2340167896025</v>
       </c>
       <c r="AC3" t="n">
-        <v>124.2551569841036</v>
+        <v>153.0825597486842</v>
       </c>
       <c r="AD3" t="n">
-        <v>100395.1608594062</v>
+        <v>123687.004899966</v>
       </c>
       <c r="AE3" t="n">
-        <v>137365.0882096872</v>
+        <v>169234.0167896025</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.081639513170997e-06</v>
+        <v>5.925077787238196e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.149739583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>124255.1569841036</v>
+        <v>153082.5597486842</v>
       </c>
     </row>
   </sheetData>
@@ -5429,28 +5429,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>141.2822667014955</v>
+        <v>189.5683476044015</v>
       </c>
       <c r="AB2" t="n">
-        <v>193.3086302346089</v>
+        <v>259.3757763574769</v>
       </c>
       <c r="AC2" t="n">
-        <v>174.8595258754391</v>
+        <v>234.6213162981834</v>
       </c>
       <c r="AD2" t="n">
-        <v>141282.2667014955</v>
+        <v>189568.3476044015</v>
       </c>
       <c r="AE2" t="n">
-        <v>193308.6302346089</v>
+        <v>259375.7763574769</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.318176760580541e-06</v>
+        <v>4.318587479543512e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.608072916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>174859.5258754391</v>
+        <v>234621.3162981834</v>
       </c>
     </row>
     <row r="3">
@@ -5535,28 +5535,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>110.0123899890573</v>
+        <v>146.1203641065732</v>
       </c>
       <c r="AB3" t="n">
-        <v>150.5238053870741</v>
+        <v>199.9283285460264</v>
       </c>
       <c r="AC3" t="n">
-        <v>136.1580246624605</v>
+        <v>180.8474494708219</v>
       </c>
       <c r="AD3" t="n">
-        <v>110012.3899890573</v>
+        <v>146120.3641065732</v>
       </c>
       <c r="AE3" t="n">
-        <v>150523.8053870741</v>
+        <v>199928.3285460264</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.844241576570111e-06</v>
+        <v>5.298606331596871e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.384114583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>136158.0246624605</v>
+        <v>180847.4494708219</v>
       </c>
     </row>
     <row r="4">
@@ -5641,28 +5641,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>106.5545869893964</v>
+        <v>130.7403873766862</v>
       </c>
       <c r="AB4" t="n">
-        <v>145.7926867754384</v>
+        <v>178.8847658675196</v>
       </c>
       <c r="AC4" t="n">
-        <v>131.8784373709511</v>
+        <v>161.8122548795193</v>
       </c>
       <c r="AD4" t="n">
-        <v>106554.5869893964</v>
+        <v>130740.3873766862</v>
       </c>
       <c r="AE4" t="n">
-        <v>145792.6867754384</v>
+        <v>178884.7658675196</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.938965712227967e-06</v>
+        <v>5.475070211840479e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.21484375</v>
       </c>
       <c r="AH4" t="n">
-        <v>131878.4373709511</v>
+        <v>161812.2548795193</v>
       </c>
     </row>
   </sheetData>
@@ -5938,28 +5938,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>96.25928221586277</v>
+        <v>129.4501404825972</v>
       </c>
       <c r="AB2" t="n">
-        <v>131.7061965875057</v>
+        <v>177.1193931453523</v>
       </c>
       <c r="AC2" t="n">
-        <v>119.1363420360371</v>
+        <v>160.2153668522389</v>
       </c>
       <c r="AD2" t="n">
-        <v>96259.28221586277</v>
+        <v>129450.1404825973</v>
       </c>
       <c r="AE2" t="n">
-        <v>131706.1965875057</v>
+        <v>177119.3931453523</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.136112595442795e-06</v>
+        <v>6.286329402435496e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.286458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>119136.3420360371</v>
+        <v>160215.3668522389</v>
       </c>
     </row>
     <row r="3">
@@ -6044,28 +6044,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>94.50002554592649</v>
+        <v>116.7410820326953</v>
       </c>
       <c r="AB3" t="n">
-        <v>129.2991039987735</v>
+        <v>159.7302986901175</v>
       </c>
       <c r="AC3" t="n">
-        <v>116.9589789855971</v>
+        <v>144.4858631660588</v>
       </c>
       <c r="AD3" t="n">
-        <v>94500.02554592649</v>
+        <v>116741.0820326953</v>
       </c>
       <c r="AE3" t="n">
-        <v>129299.1039987735</v>
+        <v>159730.2986901175</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.217030246414426e-06</v>
+        <v>6.448528619778058e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.149739583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>116958.9789855971</v>
+        <v>144485.8631660588</v>
       </c>
     </row>
   </sheetData>
@@ -6341,28 +6341,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>89.22446919547829</v>
+        <v>110.5150567177731</v>
       </c>
       <c r="AB2" t="n">
-        <v>122.0808550589737</v>
+        <v>151.2115761813938</v>
       </c>
       <c r="AC2" t="n">
-        <v>110.4296295937335</v>
+        <v>136.7801555774629</v>
       </c>
       <c r="AD2" t="n">
-        <v>89224.46919547829</v>
+        <v>110515.0567177731</v>
       </c>
       <c r="AE2" t="n">
-        <v>122080.8550589737</v>
+        <v>151211.5761813938</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.305235664697037e-06</v>
+        <v>6.914759713099655e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.221354166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>110429.6295937335</v>
+        <v>136780.1555774629</v>
       </c>
     </row>
   </sheetData>
@@ -10419,28 +10419,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>85.7712164637533</v>
+        <v>116.3967798718427</v>
       </c>
       <c r="AB2" t="n">
-        <v>117.3559623246716</v>
+        <v>159.2592092840998</v>
       </c>
       <c r="AC2" t="n">
-        <v>106.155673990563</v>
+        <v>144.0597338717732</v>
       </c>
       <c r="AD2" t="n">
-        <v>85771.2164637533</v>
+        <v>116396.7798718427</v>
       </c>
       <c r="AE2" t="n">
-        <v>117355.9623246716</v>
+        <v>159259.2092840998</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.324597383169766e-06</v>
+        <v>7.227195203854492e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.37109375</v>
       </c>
       <c r="AH2" t="n">
-        <v>106155.673990563</v>
+        <v>144059.7338717732</v>
       </c>
     </row>
   </sheetData>
@@ -10716,28 +10716,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>89.82683714981128</v>
+        <v>118.278717826912</v>
       </c>
       <c r="AB2" t="n">
-        <v>122.9050414686904</v>
+        <v>161.8341598194674</v>
       </c>
       <c r="AC2" t="n">
-        <v>111.1751568092599</v>
+        <v>146.3889347420119</v>
       </c>
       <c r="AD2" t="n">
-        <v>89826.83714981128</v>
+        <v>118278.717826912</v>
       </c>
       <c r="AE2" t="n">
-        <v>122905.0414686904</v>
+        <v>161834.1598194674</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.125021276147117e-06</v>
+        <v>7.432947366899181e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.1328125</v>
       </c>
       <c r="AH2" t="n">
-        <v>111175.1568092599</v>
+        <v>146388.9347420119</v>
       </c>
     </row>
   </sheetData>
@@ -11013,28 +11013,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>107.7736167366609</v>
+        <v>142.3433856401212</v>
       </c>
       <c r="AB2" t="n">
-        <v>147.4606170554417</v>
+        <v>194.7604999796994</v>
       </c>
       <c r="AC2" t="n">
-        <v>133.3871827259863</v>
+        <v>176.1728312097705</v>
       </c>
       <c r="AD2" t="n">
-        <v>107773.6167366609</v>
+        <v>142343.3856401212</v>
       </c>
       <c r="AE2" t="n">
-        <v>147460.6170554417</v>
+        <v>194760.4999796994</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.797819544117034e-06</v>
+        <v>5.429387600825816e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.729166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>133387.1827259863</v>
+        <v>176172.8312097705</v>
       </c>
     </row>
     <row r="3">
@@ -11119,28 +11119,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>99.21781088352934</v>
+        <v>122.2644129943872</v>
       </c>
       <c r="AB3" t="n">
-        <v>135.7541860316782</v>
+        <v>167.2875637840651</v>
       </c>
       <c r="AC3" t="n">
-        <v>122.7979970490479</v>
+        <v>151.3218734861307</v>
       </c>
       <c r="AD3" t="n">
-        <v>99217.81088352934</v>
+        <v>122264.4129943872</v>
       </c>
       <c r="AE3" t="n">
-        <v>135754.1860316782</v>
+        <v>167287.5637840651</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.101398376246377e-06</v>
+        <v>6.018506062916056e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.169270833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>122797.9970490479</v>
+        <v>151321.8734861307</v>
       </c>
     </row>
   </sheetData>
@@ -11416,28 +11416,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>136.2002559785097</v>
+        <v>172.0754967448621</v>
       </c>
       <c r="AB2" t="n">
-        <v>186.3551989609335</v>
+        <v>235.4412860813532</v>
       </c>
       <c r="AC2" t="n">
-        <v>168.5697203233188</v>
+        <v>212.9711001817372</v>
       </c>
       <c r="AD2" t="n">
-        <v>136200.2559785097</v>
+        <v>172075.4967448621</v>
       </c>
       <c r="AE2" t="n">
-        <v>186355.1989609335</v>
+        <v>235441.2860813531</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.415723756087933e-06</v>
+        <v>4.532845283924221e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.393229166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>168569.7203233188</v>
+        <v>212971.1001817372</v>
       </c>
     </row>
     <row r="3">
@@ -11522,28 +11522,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>107.0702943105203</v>
+        <v>142.860194222301</v>
       </c>
       <c r="AB3" t="n">
-        <v>146.498300283601</v>
+        <v>195.467620281823</v>
       </c>
       <c r="AC3" t="n">
-        <v>132.5167081162297</v>
+        <v>176.8124649427093</v>
       </c>
       <c r="AD3" t="n">
-        <v>107070.2943105203</v>
+        <v>142860.194222301</v>
       </c>
       <c r="AE3" t="n">
-        <v>146498.300283601</v>
+        <v>195467.620281823</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.91646208010561e-06</v>
+        <v>5.4724267839958e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.292968750000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>132516.7081162297</v>
+        <v>176812.4649427093</v>
       </c>
     </row>
     <row r="4">
@@ -11628,28 +11628,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>105.2359345690848</v>
+        <v>129.2096854858845</v>
       </c>
       <c r="AB4" t="n">
-        <v>143.98844835913</v>
+        <v>176.7903920107243</v>
       </c>
       <c r="AC4" t="n">
-        <v>130.2463929368301</v>
+        <v>159.9177651241437</v>
       </c>
       <c r="AD4" t="n">
-        <v>105235.9345690848</v>
+        <v>129209.6854858845</v>
       </c>
       <c r="AE4" t="n">
-        <v>143988.44835913</v>
+        <v>176790.3920107243</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.965783867931107e-06</v>
+        <v>5.564973803403997e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.208333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>130246.3929368301</v>
+        <v>159917.7651241437</v>
       </c>
     </row>
   </sheetData>
@@ -11925,28 +11925,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>97.04771256468075</v>
+        <v>124.5283809629316</v>
       </c>
       <c r="AB2" t="n">
-        <v>132.7849617738501</v>
+        <v>170.3852246378436</v>
       </c>
       <c r="AC2" t="n">
-        <v>120.1121513870536</v>
+        <v>154.1238979356199</v>
       </c>
       <c r="AD2" t="n">
-        <v>97047.71256468075</v>
+        <v>124528.3809629316</v>
       </c>
       <c r="AE2" t="n">
-        <v>132784.9617738501</v>
+        <v>170385.2246378436</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.807609546952473e-06</v>
+        <v>7.021618408754515e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.0703125</v>
       </c>
       <c r="AH2" t="n">
-        <v>120112.1513870536</v>
+        <v>154123.8979356199</v>
       </c>
     </row>
   </sheetData>
@@ -12222,28 +12222,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>91.06891009007069</v>
+        <v>112.6968935473073</v>
       </c>
       <c r="AB2" t="n">
-        <v>124.6045004619432</v>
+        <v>154.1968615874084</v>
       </c>
       <c r="AC2" t="n">
-        <v>112.7124218214029</v>
+        <v>139.4805295342028</v>
       </c>
       <c r="AD2" t="n">
-        <v>91068.91009007068</v>
+        <v>112696.8935473073</v>
       </c>
       <c r="AE2" t="n">
-        <v>124604.5004619432</v>
+        <v>154196.8615874084</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.269731191372909e-06</v>
+        <v>6.733303354890505e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.201822916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>112712.4218214029</v>
+        <v>139480.5295342028</v>
       </c>
     </row>
   </sheetData>
@@ -12519,28 +12519,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>99.55783867834924</v>
+        <v>133.1711684640773</v>
       </c>
       <c r="AB2" t="n">
-        <v>136.2194270615182</v>
+        <v>182.2106677897794</v>
       </c>
       <c r="AC2" t="n">
-        <v>123.21883612797</v>
+        <v>164.8207373902524</v>
       </c>
       <c r="AD2" t="n">
-        <v>99557.83867834925</v>
+        <v>133171.1684640773</v>
       </c>
       <c r="AE2" t="n">
-        <v>136219.4270615182</v>
+        <v>182210.6677897794</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.032007394021917e-06</v>
+        <v>6.006964875844277e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.403645833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>123218.83612797</v>
+        <v>164820.7373902524</v>
       </c>
     </row>
     <row r="3">
@@ -12625,28 +12625,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>96.1456387233434</v>
+        <v>118.6683428894412</v>
       </c>
       <c r="AB3" t="n">
-        <v>131.5507045474438</v>
+        <v>162.3672620190642</v>
       </c>
       <c r="AC3" t="n">
-        <v>118.9956899380442</v>
+        <v>146.871158415893</v>
       </c>
       <c r="AD3" t="n">
-        <v>96145.63872334339</v>
+        <v>118668.3428894412</v>
       </c>
       <c r="AE3" t="n">
-        <v>131550.7045474438</v>
+        <v>162367.2620190642</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.178111259818642e-06</v>
+        <v>6.296423533430799e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.15625</v>
       </c>
       <c r="AH3" t="n">
-        <v>118995.6899380442</v>
+        <v>146871.158415893</v>
       </c>
     </row>
   </sheetData>
